--- a/Projects/Mars Thallo/neo4j_kg/input/db_path_and_mapping.xlsx
+++ b/Projects/Mars Thallo/neo4j_kg/input/db_path_and_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanchenwang/Documents/GitHub/TechNow/Projects/Mars Thallo/neo4j_kg/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633BCB7-45C5-244D-B572-D36593F03529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935DD89-CE1F-C647-81FB-1131B4FF6CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="15460" tabRatio="665" xr2:uid="{9BD1A2ED-D363-48E4-BE87-F75C302D051C}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28940" windowHeight="17600" tabRatio="665" activeTab="3" xr2:uid="{9BD1A2ED-D363-48E4-BE87-F75C302D051C}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -2982,13 +2982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9C6D6-8362-472C-A5E7-225CA13095BB}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
       <c r="B4" s="25" t="s">
         <v>268</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="64"/>
       <c r="B22" s="25" t="s">
         <v>101</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
       <c r="B23" s="25" t="s">
         <v>102</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64"/>
       <c r="B26" s="25" t="s">
         <v>103</v>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="64"/>
       <c r="B27" s="25" t="s">
         <v>104</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="64"/>
       <c r="B28" s="25" t="s">
         <v>105</v>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64"/>
       <c r="B30" s="25" t="s">
         <v>120</v>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="64"/>
       <c r="B31" s="25" t="s">
         <v>106</v>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="64"/>
       <c r="B32" s="25" t="s">
         <v>107</v>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="64"/>
       <c r="B33" s="25" t="s">
         <v>108</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="64"/>
       <c r="B34" s="25" t="s">
         <v>109</v>
@@ -5030,7 +5030,7 @@
         <v>4.2824074074074075E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64"/>
       <c r="B37" s="25" t="s">
         <v>110</v>
@@ -5082,7 +5082,7 @@
         <v>4.6296296296296298E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64"/>
       <c r="B38" s="25" t="s">
         <v>111</v>
@@ -5134,7 +5134,7 @@
         <v>4.6296296296296298E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64"/>
       <c r="B39" s="25" t="s">
         <v>115</v>
@@ -5243,7 +5243,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64"/>
       <c r="B41" s="25" t="s">
         <v>265</v>
@@ -5457,7 +5457,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="64"/>
       <c r="B45" s="25" t="s">
         <v>116</v>
@@ -5563,7 +5563,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="64"/>
       <c r="B47" s="25" t="s">
         <v>112</v>
@@ -5615,7 +5615,7 @@
         <v>4.5138888888888887E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="64"/>
       <c r="B48" s="25" t="s">
         <v>113</v>
@@ -5667,7 +5667,7 @@
         <v>4.5138888888888887E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="64"/>
       <c r="B49" s="25" t="s">
         <v>114</v>
@@ -5719,7 +5719,7 @@
         <v>4.3981481481481481E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="64"/>
       <c r="B50" s="25" t="s">
         <v>117</v>
@@ -5977,7 +5977,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="64"/>
       <c r="B55" s="56" t="s">
         <v>347</v>
@@ -6017,7 +6017,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="64"/>
       <c r="B56" s="25" t="s">
         <v>39</v>
@@ -6071,7 +6071,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="64"/>
       <c r="B57" s="25" t="s">
         <v>40</v>
@@ -6125,7 +6125,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="64"/>
       <c r="B58" s="25" t="s">
         <v>118</v>
@@ -6177,7 +6177,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="64"/>
       <c r="B59" s="56" t="s">
         <v>269</v>
@@ -6229,7 +6229,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="64"/>
       <c r="B60" s="30" t="s">
         <v>122</v>
@@ -6281,7 +6281,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="64"/>
       <c r="B61" s="25" t="s">
         <v>119</v>
@@ -6333,7 +6333,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="64"/>
       <c r="B62" s="25" t="s">
         <v>266</v>
@@ -6385,7 +6385,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="64"/>
       <c r="B63" s="35" t="s">
         <v>271</v>
@@ -6494,7 +6494,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="64"/>
       <c r="B65" s="56" t="s">
         <v>348</v>
@@ -6638,7 +6638,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="64"/>
       <c r="B68" s="35" t="s">
         <v>270</v>
@@ -6690,7 +6690,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="64"/>
       <c r="B69" s="25" t="s">
         <v>539</v>
@@ -6950,7 +6950,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="64"/>
       <c r="B74" s="34" t="s">
         <v>397</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="64"/>
       <c r="B77" s="25" t="s">
         <v>245</v>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="64"/>
       <c r="B78" s="25" t="s">
         <v>246</v>
@@ -7543,7 +7543,7 @@
         <v>1.7361111111111112E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="64"/>
       <c r="B85" s="25" t="s">
         <v>267</v>
@@ -7595,7 +7595,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="64"/>
       <c r="B86" s="34" t="s">
         <v>398</v>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="64"/>
       <c r="B87" s="25" t="s">
         <v>123</v>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="64"/>
       <c r="B88" s="25" t="s">
         <v>124</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="64"/>
       <c r="B89" s="25" t="s">
         <v>360</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="64"/>
       <c r="B90" s="56" t="s">
         <v>125</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="64"/>
       <c r="B91" s="25" t="s">
         <v>126</v>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="64"/>
       <c r="B92" s="25" t="s">
         <v>359</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="25" t="s">
         <v>495</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="25" t="s">
         <v>496</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="25" t="s">
         <v>497</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
         <v>498</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
         <v>499</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="25" t="s">
         <v>500</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
         <v>501</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>5.9027777777777778E-4</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="25" t="s">
         <v>502</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="25" t="s">
         <v>505</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="25" t="s">
         <v>507</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="25" t="s">
         <v>509</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="25" t="s">
         <v>511</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="25" t="s">
         <v>513</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>4.6296296296296298E-4</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="25" t="s">
         <v>514</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>4.5138888888888887E-4</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="25" t="s">
         <v>515</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>4.3981481481481481E-4</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="25" t="s">
         <v>516</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>4.2824074074074075E-4</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="25" t="s">
         <v>517</v>
       </c>
@@ -8629,7 +8629,13 @@
       <c r="D111" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Q109" xr:uid="{55B9C6D6-8362-472C-A5E7-225CA13095BB}"/>
+  <autoFilter ref="B1:Q109" xr:uid="{55B9C6D6-8362-472C-A5E7-225CA13095BB}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A2:A92"/>
   </mergeCells>
@@ -12210,7 +12216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED6A2-0C97-4EFD-8872-61841E9483CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -16857,14 +16863,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="63f3e56f-7e91-4615-a50b-2c846edf9310" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="592d3804-afe4-4f36-a41a-bf2abbb6d3b0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17063,27 +17067,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="63f3e56f-7e91-4615-a50b-2c846edf9310" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="592d3804-afe4-4f36-a41a-bf2abbb6d3b0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1365AEF3-4AC7-4FD8-B8EE-D4D2911124E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3F5662-10B0-4F5A-9441-87B9DECEAC55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="63f3e56f-7e91-4615-a50b-2c846edf9310"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="592d3804-afe4-4f36-a41a-bf2abbb6d3b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17108,9 +17105,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3F5662-10B0-4F5A-9441-87B9DECEAC55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1365AEF3-4AC7-4FD8-B8EE-D4D2911124E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="63f3e56f-7e91-4615-a50b-2c846edf9310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="592d3804-afe4-4f36-a41a-bf2abbb6d3b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>